--- a/PangkalanData/public/Template/Template Penghargaan Bahasa.xlsx
+++ b/PangkalanData/public/Template/Template Penghargaan Bahasa.xlsx
@@ -66,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
-    <numFmt numFmtId="181" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -102,17 +102,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,22 +112,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +156,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -188,6 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -205,6 +197,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,73 +278,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,85 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,6 +542,45 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,45 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -651,145 +651,145 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -802,8 +802,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1249,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" ht="15.15" spans="1:1">
       <c r="A8" s="16"/>
     </row>
     <row r="9" spans="1:1">
@@ -1258,7 +1258,7 @@
     <row r="10" spans="1:1">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" ht="15.15" spans="1:1">
       <c r="A11"/>
     </row>
     <row r="12" spans="1:1">
